--- a/Music/Guitar/P4/Maps.xlsx
+++ b/Music/Guitar/P4/Maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\writ\ajar\Music\Guitar\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E64EC-9C39-4108-84FC-FCF8DC0EF95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE54CEA8-724F-4345-95DB-F80FC5A9B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="-14400" windowWidth="17250" windowHeight="14490" firstSheet="3" activeTab="8" xr2:uid="{15872005-B529-4BC3-99F5-588162CA8530}"/>
+    <workbookView xWindow="520" yWindow="-14400" windowWidth="17250" windowHeight="14490" firstSheet="6" activeTab="11" xr2:uid="{15872005-B529-4BC3-99F5-588162CA8530}"/>
   </bookViews>
   <sheets>
     <sheet name="Pents" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="P4 Scales" sheetId="9" r:id="rId8"/>
     <sheet name="Arpeggios" sheetId="10" r:id="rId9"/>
     <sheet name="Wholey" sheetId="8" r:id="rId10"/>
+    <sheet name="P4 Pents" sheetId="11" r:id="rId11"/>
+    <sheet name="P4 Arps" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -177,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +245,38 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,6 +877,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2089,6 +2141,2263 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE0A7B-C5A6-4BF2-80CC-A2D0D59A6794}">
+  <dimension ref="B2:CI31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1">
+        <v>7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>6</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
+        <v>6</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
+        <v>7</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>7</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="99"/>
+      <c r="BC9" s="99"/>
+      <c r="BD9" s="99"/>
+      <c r="BE9" s="99"/>
+      <c r="BF9" s="99"/>
+      <c r="BG9" s="99"/>
+      <c r="BH9" s="99"/>
+      <c r="BI9" s="99"/>
+      <c r="BJ9" s="99"/>
+      <c r="BK9" s="99"/>
+      <c r="BL9" s="99"/>
+      <c r="BM9" s="99"/>
+      <c r="BN9" s="99"/>
+      <c r="BO9" s="99"/>
+      <c r="BP9" s="99"/>
+      <c r="BQ9" s="99"/>
+      <c r="BR9" s="99"/>
+      <c r="BS9" s="99"/>
+      <c r="BT9" s="99"/>
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="99"/>
+      <c r="BX9" s="99"/>
+      <c r="BY9" s="99"/>
+      <c r="BZ9" s="99"/>
+      <c r="CA9" s="99"/>
+      <c r="CB9" s="99"/>
+      <c r="CC9" s="99"/>
+      <c r="CD9" s="99"/>
+      <c r="CE9" s="99"/>
+      <c r="CF9" s="99"/>
+      <c r="CG9" s="99"/>
+      <c r="CH9" s="99"/>
+      <c r="CI9" s="99"/>
+    </row>
+    <row r="10" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>5</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="101">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="104">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="103">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103">
+        <v>6</v>
+      </c>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="99"/>
+      <c r="AZ10" s="99"/>
+      <c r="BA10" s="99"/>
+      <c r="BB10" s="104">
+        <v>6</v>
+      </c>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="104">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="100"/>
+      <c r="BG10" s="106">
+        <v>2</v>
+      </c>
+      <c r="BH10" s="106"/>
+      <c r="BI10" s="106">
+        <v>3</v>
+      </c>
+      <c r="BJ10" s="106"/>
+      <c r="BK10" s="99"/>
+      <c r="BL10" s="99"/>
+      <c r="BM10" s="99"/>
+      <c r="BN10" s="99"/>
+      <c r="BO10" s="103">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="103"/>
+      <c r="BQ10" s="103">
+        <v>2</v>
+      </c>
+      <c r="BR10" s="100"/>
+      <c r="BS10" s="102">
+        <v>3</v>
+      </c>
+      <c r="BT10" s="102"/>
+      <c r="BU10" s="102"/>
+      <c r="BV10" s="102">
+        <v>5</v>
+      </c>
+      <c r="BW10" s="99"/>
+      <c r="BX10" s="99"/>
+      <c r="BY10" s="99"/>
+      <c r="BZ10" s="106">
+        <v>2</v>
+      </c>
+      <c r="CA10" s="106"/>
+      <c r="CB10" s="106">
+        <v>3</v>
+      </c>
+      <c r="CC10" s="106"/>
+      <c r="CD10" s="100"/>
+      <c r="CE10" s="103">
+        <v>5</v>
+      </c>
+      <c r="CF10" s="103"/>
+      <c r="CG10" s="103">
+        <v>6</v>
+      </c>
+      <c r="CH10" s="99"/>
+      <c r="CI10" s="99"/>
+    </row>
+    <row r="11" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="102">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="104">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="104">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="103">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="103">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="103"/>
+      <c r="AV11" s="103">
+        <v>5</v>
+      </c>
+      <c r="AW11" s="103"/>
+      <c r="AX11" s="103">
+        <v>6</v>
+      </c>
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="99"/>
+      <c r="BB11" s="104">
+        <v>3</v>
+      </c>
+      <c r="BC11" s="104"/>
+      <c r="BD11" s="104"/>
+      <c r="BE11" s="104">
+        <v>5</v>
+      </c>
+      <c r="BF11" s="100"/>
+      <c r="BG11" s="106">
+        <v>6</v>
+      </c>
+      <c r="BH11" s="106"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="99"/>
+      <c r="BL11" s="99"/>
+      <c r="BM11" s="99"/>
+      <c r="BN11" s="99"/>
+      <c r="BO11" s="103">
+        <v>5</v>
+      </c>
+      <c r="BP11" s="103"/>
+      <c r="BQ11" s="103">
+        <v>6</v>
+      </c>
+      <c r="BR11" s="100"/>
+      <c r="BS11" s="102"/>
+      <c r="BT11" s="102">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="102"/>
+      <c r="BV11" s="102">
+        <v>2</v>
+      </c>
+      <c r="BW11" s="99"/>
+      <c r="BX11" s="99"/>
+      <c r="BY11" s="99"/>
+      <c r="BZ11" s="106">
+        <v>6</v>
+      </c>
+      <c r="CA11" s="106"/>
+      <c r="CB11" s="106"/>
+      <c r="CC11" s="106">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="100"/>
+      <c r="CE11" s="103">
+        <v>2</v>
+      </c>
+      <c r="CF11" s="103"/>
+      <c r="CG11" s="103">
+        <v>3</v>
+      </c>
+      <c r="CH11" s="99"/>
+      <c r="CI11" s="99"/>
+    </row>
+    <row r="12" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="99"/>
+      <c r="BA12" s="99"/>
+      <c r="BB12" s="99"/>
+      <c r="BC12" s="99"/>
+      <c r="BD12" s="99"/>
+      <c r="BE12" s="99"/>
+      <c r="BF12" s="99"/>
+      <c r="BG12" s="99"/>
+      <c r="BH12" s="99"/>
+      <c r="BI12" s="99"/>
+      <c r="BJ12" s="99"/>
+      <c r="BK12" s="99"/>
+      <c r="BL12" s="99"/>
+      <c r="BM12" s="99"/>
+      <c r="BN12" s="99"/>
+      <c r="BO12" s="99"/>
+      <c r="BP12" s="99"/>
+      <c r="BQ12" s="99"/>
+      <c r="BR12" s="99"/>
+      <c r="BS12" s="99"/>
+      <c r="BT12" s="99"/>
+      <c r="BU12" s="99"/>
+      <c r="BV12" s="99"/>
+      <c r="BW12" s="99"/>
+      <c r="BX12" s="99"/>
+      <c r="BY12" s="99"/>
+      <c r="BZ12" s="99"/>
+      <c r="CA12" s="99"/>
+      <c r="CB12" s="99"/>
+      <c r="CC12" s="99"/>
+      <c r="CD12" s="99"/>
+      <c r="CE12" s="99"/>
+      <c r="CF12" s="99"/>
+      <c r="CG12" s="99"/>
+      <c r="CH12" s="99"/>
+      <c r="CI12" s="99"/>
+    </row>
+    <row r="13" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>6</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="99"/>
+      <c r="AZ13" s="99"/>
+      <c r="BA13" s="99"/>
+      <c r="BB13" s="99"/>
+      <c r="BC13" s="99"/>
+      <c r="BD13" s="99"/>
+      <c r="BE13" s="99"/>
+      <c r="BF13" s="99"/>
+      <c r="BG13" s="99"/>
+      <c r="BH13" s="99"/>
+      <c r="BI13" s="99"/>
+      <c r="BJ13" s="99"/>
+      <c r="BK13" s="99"/>
+      <c r="BL13" s="99"/>
+      <c r="BM13" s="99"/>
+      <c r="BN13" s="99"/>
+      <c r="BO13" s="99"/>
+      <c r="BP13" s="99"/>
+      <c r="BQ13" s="99"/>
+      <c r="BR13" s="99"/>
+      <c r="BS13" s="99"/>
+      <c r="BT13" s="99"/>
+      <c r="BU13" s="99"/>
+      <c r="BV13" s="99"/>
+      <c r="BW13" s="99"/>
+      <c r="BX13" s="99"/>
+      <c r="BY13" s="99"/>
+      <c r="BZ13" s="99"/>
+      <c r="CA13" s="99"/>
+      <c r="CB13" s="99"/>
+      <c r="CC13" s="99"/>
+      <c r="CD13" s="99"/>
+      <c r="CE13" s="99"/>
+      <c r="CF13" s="99"/>
+      <c r="CG13" s="99"/>
+      <c r="CH13" s="99"/>
+      <c r="CI13" s="99"/>
+    </row>
+    <row r="14" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
+        <v>6</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="103">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="102">
+        <v>6</v>
+      </c>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="106">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106">
+        <v>6</v>
+      </c>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="100"/>
+      <c r="AV14" s="103">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="103">
+        <v>2</v>
+      </c>
+      <c r="AY14" s="100"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="99"/>
+      <c r="BB14" s="102">
+        <v>6</v>
+      </c>
+      <c r="BC14" s="102"/>
+      <c r="BD14" s="102"/>
+      <c r="BE14" s="102">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="100"/>
+      <c r="BG14" s="104">
+        <v>2</v>
+      </c>
+      <c r="BH14" s="104"/>
+      <c r="BI14" s="104"/>
+      <c r="BJ14" s="104">
+        <v>4</v>
+      </c>
+      <c r="BK14" s="99"/>
+      <c r="BL14" s="99"/>
+      <c r="BM14" s="99"/>
+      <c r="BN14" s="99"/>
+      <c r="BO14" s="103">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="103"/>
+      <c r="BQ14" s="103">
+        <v>2</v>
+      </c>
+      <c r="BR14" s="100"/>
+      <c r="BS14" s="100"/>
+      <c r="BT14" s="103">
+        <v>4</v>
+      </c>
+      <c r="BU14" s="103"/>
+      <c r="BV14" s="103">
+        <v>5</v>
+      </c>
+      <c r="BW14" s="99"/>
+      <c r="BX14" s="99"/>
+      <c r="BY14" s="99"/>
+      <c r="BZ14" s="104">
+        <v>2</v>
+      </c>
+      <c r="CA14" s="104"/>
+      <c r="CB14" s="104"/>
+      <c r="CC14" s="104">
+        <v>4</v>
+      </c>
+      <c r="CD14" s="100"/>
+      <c r="CE14" s="106">
+        <v>5</v>
+      </c>
+      <c r="CF14" s="106"/>
+      <c r="CG14" s="106">
+        <v>6</v>
+      </c>
+      <c r="CH14" s="106"/>
+      <c r="CI14" s="99"/>
+    </row>
+    <row r="15" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1">
+        <v>5</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="103">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="102">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="106">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106">
+        <v>4</v>
+      </c>
+      <c r="AU15" s="100"/>
+      <c r="AV15" s="103">
+        <v>5</v>
+      </c>
+      <c r="AW15" s="103"/>
+      <c r="AX15" s="103">
+        <v>6</v>
+      </c>
+      <c r="AY15" s="100"/>
+      <c r="AZ15" s="99"/>
+      <c r="BA15" s="99"/>
+      <c r="BB15" s="102"/>
+      <c r="BC15" s="102">
+        <v>4</v>
+      </c>
+      <c r="BD15" s="102"/>
+      <c r="BE15" s="102">
+        <v>5</v>
+      </c>
+      <c r="BF15" s="100"/>
+      <c r="BG15" s="104">
+        <v>6</v>
+      </c>
+      <c r="BH15" s="104"/>
+      <c r="BI15" s="104"/>
+      <c r="BJ15" s="104">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="99"/>
+      <c r="BL15" s="99"/>
+      <c r="BM15" s="99"/>
+      <c r="BN15" s="99"/>
+      <c r="BO15" s="103">
+        <v>5</v>
+      </c>
+      <c r="BP15" s="103"/>
+      <c r="BQ15" s="103">
+        <v>6</v>
+      </c>
+      <c r="BR15" s="100"/>
+      <c r="BS15" s="100"/>
+      <c r="BT15" s="103">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="103"/>
+      <c r="BV15" s="103">
+        <v>2</v>
+      </c>
+      <c r="BW15" s="99"/>
+      <c r="BX15" s="99"/>
+      <c r="BY15" s="99"/>
+      <c r="BZ15" s="104">
+        <v>6</v>
+      </c>
+      <c r="CA15" s="104"/>
+      <c r="CB15" s="104"/>
+      <c r="CC15" s="104">
+        <v>1</v>
+      </c>
+      <c r="CD15" s="100"/>
+      <c r="CE15" s="106">
+        <v>2</v>
+      </c>
+      <c r="CF15" s="106"/>
+      <c r="CG15" s="106"/>
+      <c r="CH15" s="106">
+        <v>4</v>
+      </c>
+      <c r="CI15" s="99"/>
+    </row>
+    <row r="16" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="99"/>
+      <c r="BA16" s="99"/>
+      <c r="BB16" s="99"/>
+      <c r="BC16" s="99"/>
+      <c r="BD16" s="99"/>
+      <c r="BE16" s="99"/>
+      <c r="BF16" s="99"/>
+      <c r="BG16" s="99"/>
+      <c r="BH16" s="99"/>
+      <c r="BI16" s="99"/>
+      <c r="BJ16" s="99"/>
+      <c r="BK16" s="99"/>
+      <c r="BL16" s="99"/>
+      <c r="BM16" s="99"/>
+      <c r="BN16" s="99"/>
+      <c r="BO16" s="99"/>
+      <c r="BP16" s="99"/>
+      <c r="BQ16" s="99"/>
+      <c r="BR16" s="99"/>
+      <c r="BS16" s="99"/>
+      <c r="BT16" s="99"/>
+      <c r="BU16" s="99"/>
+      <c r="BV16" s="99"/>
+      <c r="BW16" s="99"/>
+      <c r="BX16" s="99"/>
+      <c r="BY16" s="99"/>
+      <c r="BZ16" s="99"/>
+      <c r="CA16" s="99"/>
+      <c r="CB16" s="99"/>
+      <c r="CC16" s="99"/>
+      <c r="CD16" s="99"/>
+      <c r="CE16" s="99"/>
+      <c r="CF16" s="99"/>
+      <c r="CG16" s="99"/>
+      <c r="CH16" s="99"/>
+      <c r="CI16" s="99"/>
+    </row>
+    <row r="17" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="99"/>
+      <c r="BA17" s="99"/>
+      <c r="BB17" s="99"/>
+      <c r="BC17" s="99"/>
+      <c r="BD17" s="99"/>
+      <c r="BE17" s="99"/>
+      <c r="BF17" s="99"/>
+      <c r="BG17" s="99"/>
+      <c r="BH17" s="99"/>
+      <c r="BI17" s="99"/>
+      <c r="BJ17" s="99"/>
+      <c r="BK17" s="99"/>
+      <c r="BL17" s="99"/>
+      <c r="BM17" s="99"/>
+      <c r="BN17" s="99"/>
+      <c r="BO17" s="99"/>
+      <c r="BP17" s="99"/>
+      <c r="BQ17" s="99"/>
+      <c r="BR17" s="99"/>
+      <c r="BS17" s="99"/>
+      <c r="BT17" s="99"/>
+      <c r="BU17" s="99"/>
+      <c r="BV17" s="99"/>
+      <c r="BW17" s="99"/>
+      <c r="BX17" s="99"/>
+      <c r="BY17" s="99"/>
+      <c r="BZ17" s="99"/>
+      <c r="CA17" s="99"/>
+      <c r="CB17" s="99"/>
+      <c r="CC17" s="99"/>
+      <c r="CD17" s="99"/>
+      <c r="CE17" s="99"/>
+      <c r="CF17" s="99"/>
+      <c r="CG17" s="99"/>
+      <c r="CH17" s="99"/>
+      <c r="CI17" s="99"/>
+    </row>
+    <row r="18" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>4</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
+        <v>5</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="105">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="106">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106">
+        <v>7</v>
+      </c>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="103">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="103">
+        <v>6</v>
+      </c>
+      <c r="AT18" s="100"/>
+      <c r="AU18" s="102">
+        <v>7</v>
+      </c>
+      <c r="AV18" s="102"/>
+      <c r="AW18" s="102"/>
+      <c r="AX18" s="102">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="99"/>
+      <c r="BA18" s="99"/>
+      <c r="BB18" s="106">
+        <v>6</v>
+      </c>
+      <c r="BC18" s="106"/>
+      <c r="BD18" s="106">
+        <v>7</v>
+      </c>
+      <c r="BE18" s="106"/>
+      <c r="BF18" s="100"/>
+      <c r="BG18" s="103">
+        <v>2</v>
+      </c>
+      <c r="BH18" s="103"/>
+      <c r="BI18" s="103">
+        <v>3</v>
+      </c>
+      <c r="BJ18" s="99"/>
+      <c r="BK18" s="99"/>
+      <c r="BL18" s="99"/>
+      <c r="BM18" s="99"/>
+      <c r="BN18" s="102">
+        <v>7</v>
+      </c>
+      <c r="BO18" s="102"/>
+      <c r="BP18" s="102"/>
+      <c r="BQ18" s="102">
+        <v>2</v>
+      </c>
+      <c r="BR18" s="100"/>
+      <c r="BS18" s="104">
+        <v>3</v>
+      </c>
+      <c r="BT18" s="104"/>
+      <c r="BU18" s="104"/>
+      <c r="BV18" s="104">
+        <v>5</v>
+      </c>
+      <c r="BW18" s="99"/>
+      <c r="BX18" s="99"/>
+      <c r="BY18" s="99"/>
+      <c r="BZ18" s="103">
+        <v>2</v>
+      </c>
+      <c r="CA18" s="103"/>
+      <c r="CB18" s="103">
+        <v>3</v>
+      </c>
+      <c r="CC18" s="100"/>
+      <c r="CD18" s="100"/>
+      <c r="CE18" s="103">
+        <v>5</v>
+      </c>
+      <c r="CF18" s="103"/>
+      <c r="CG18" s="103">
+        <v>6</v>
+      </c>
+      <c r="CH18" s="99"/>
+      <c r="CI18" s="99"/>
+    </row>
+    <row r="19" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
+        <v>5</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>2</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="105">
+        <v>7</v>
+      </c>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="106">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="106"/>
+      <c r="AL19" s="106"/>
+      <c r="AM19" s="106">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="103">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103">
+        <v>3</v>
+      </c>
+      <c r="AT19" s="100"/>
+      <c r="AU19" s="102"/>
+      <c r="AV19" s="102">
+        <v>5</v>
+      </c>
+      <c r="AW19" s="102"/>
+      <c r="AX19" s="102">
+        <v>6</v>
+      </c>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="99"/>
+      <c r="BB19" s="106">
+        <v>3</v>
+      </c>
+      <c r="BC19" s="106"/>
+      <c r="BD19" s="106"/>
+      <c r="BE19" s="106">
+        <v>5</v>
+      </c>
+      <c r="BF19" s="100"/>
+      <c r="BG19" s="103">
+        <v>6</v>
+      </c>
+      <c r="BH19" s="103"/>
+      <c r="BI19" s="103">
+        <v>7</v>
+      </c>
+      <c r="BJ19" s="99"/>
+      <c r="BK19" s="99"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="99"/>
+      <c r="BN19" s="102"/>
+      <c r="BO19" s="102">
+        <v>5</v>
+      </c>
+      <c r="BP19" s="102"/>
+      <c r="BQ19" s="102">
+        <v>6</v>
+      </c>
+      <c r="BR19" s="100"/>
+      <c r="BS19" s="104">
+        <v>7</v>
+      </c>
+      <c r="BT19" s="104"/>
+      <c r="BU19" s="104"/>
+      <c r="BV19" s="104">
+        <v>2</v>
+      </c>
+      <c r="BW19" s="99"/>
+      <c r="BX19" s="99"/>
+      <c r="BY19" s="99"/>
+      <c r="BZ19" s="103">
+        <v>6</v>
+      </c>
+      <c r="CA19" s="103"/>
+      <c r="CB19" s="103">
+        <v>7</v>
+      </c>
+      <c r="CC19" s="100"/>
+      <c r="CD19" s="100"/>
+      <c r="CE19" s="103">
+        <v>2</v>
+      </c>
+      <c r="CF19" s="103"/>
+      <c r="CG19" s="103">
+        <v>3</v>
+      </c>
+      <c r="CH19" s="99"/>
+      <c r="CI19" s="99"/>
+    </row>
+    <row r="20" spans="2:87" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
+        <v>5</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
+        <v>6</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="99"/>
+      <c r="BA20" s="99"/>
+      <c r="BB20" s="99"/>
+      <c r="BC20" s="99"/>
+      <c r="BD20" s="99"/>
+      <c r="BE20" s="99"/>
+      <c r="BF20" s="99"/>
+      <c r="BG20" s="99"/>
+      <c r="BH20" s="99"/>
+      <c r="BI20" s="99"/>
+      <c r="BJ20" s="99"/>
+      <c r="BK20" s="99"/>
+      <c r="BL20" s="99"/>
+      <c r="BM20" s="99"/>
+      <c r="BN20" s="99"/>
+      <c r="BO20" s="99"/>
+      <c r="BP20" s="99"/>
+      <c r="BQ20" s="99"/>
+      <c r="BR20" s="99"/>
+      <c r="BS20" s="99"/>
+      <c r="BT20" s="99"/>
+      <c r="BU20" s="99"/>
+      <c r="BV20" s="99"/>
+      <c r="BW20" s="99"/>
+      <c r="BX20" s="99"/>
+      <c r="BY20" s="99"/>
+      <c r="BZ20" s="99"/>
+      <c r="CA20" s="99"/>
+      <c r="CB20" s="99"/>
+      <c r="CC20" s="99"/>
+      <c r="CD20" s="99"/>
+      <c r="CE20" s="99"/>
+      <c r="CF20" s="99"/>
+      <c r="CG20" s="99"/>
+      <c r="CH20" s="99"/>
+      <c r="CI20" s="99"/>
+    </row>
+    <row r="21" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>6</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
+        <v>2</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1">
+        <v>4</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
+        <v>6</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1">
+        <v>5</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="26" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1">
+        <v>3</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1">
+        <v>5</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
+        <v>6</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1">
+        <v>7</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <v>7</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1">
+        <v>5</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
+        <v>6</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>6</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <v>7</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
+        <v>3</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <v>7</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1">
+        <v>5</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
+        <v>6</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1">
+        <v>7</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>6</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>7</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1">
+        <v>2</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
+        <v>3</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1">
+        <v>5</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61869FB0-B974-4B0F-947D-F66A5ABC84FE}">
+  <dimension ref="B3:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A3ACC8-298C-4C7C-A149-C61C7EC7D44E}">
   <dimension ref="A2:AI35"/>
@@ -5227,8 +7536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC39C95D-C5E5-4736-B20F-1979DF3FBF45}">
   <dimension ref="B2:FO99"/>
   <sheetViews>
-    <sheetView topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="EM16" sqref="EM16"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CN2" sqref="CN2:DK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10974,10 +13283,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43C782C-44EB-4A23-A987-14FEC141DE91}">
-  <dimension ref="B2:AP17"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:AP7"/>
+      <selection activeCell="T3" sqref="T3:AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10985,7 +13294,7 @@
     <col min="1" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -11011,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11036,50 +13345,8 @@
       <c r="N3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="2">
-        <v>7</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -11104,50 +13371,8 @@
       <c r="N4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="2">
-        <v>2</v>
-      </c>
-      <c r="V4" s="2">
-        <v>3</v>
-      </c>
-      <c r="W4" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>4</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>6</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>7</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -11172,50 +13397,8 @@
       <c r="N5" s="2">
         <v>4</v>
       </c>
-      <c r="T5" s="2">
-        <v>3</v>
-      </c>
-      <c r="U5" s="2">
-        <v>4</v>
-      </c>
-      <c r="W5" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>3</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>6</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>7</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -11240,50 +13423,8 @@
       <c r="N6" s="2">
         <v>5</v>
       </c>
-      <c r="T6" s="2">
-        <v>5</v>
-      </c>
-      <c r="V6" s="2">
-        <v>6</v>
-      </c>
-      <c r="X6" s="2">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>6</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>7</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -11308,50 +13449,8 @@
       <c r="N7" s="2">
         <v>6</v>
       </c>
-      <c r="T7" s="2">
-        <v>6</v>
-      </c>
-      <c r="V7" s="2">
-        <v>7</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -11377,7 +13476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="2">
         <v>5</v>
       </c>
@@ -11394,7 +13493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <v>2</v>
       </c>
@@ -11411,7 +13510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="2">
         <v>2</v>
       </c>
@@ -11454,7 +13553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10D39D-2535-4EAD-9486-E41F6D785BCB}">
   <dimension ref="B2:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
